--- a/Project3708_M. Iijima(2019).xlsx
+++ b/Project3708_M. Iijima(2019).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CC663-44A2-FE4C-BAE3-B4671FD9BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1345AF-30A0-4A96-BA4A-9C16A5AD41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="16455" yWindow="1170" windowWidth="15945" windowHeight="18375" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3708" sheetId="1" r:id="rId1"/>
@@ -895,55 +895,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>781470</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4DC388-0E12-9378-6D6B-3B693B62E06A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10536767" y="321549"/>
-          <a:ext cx="10700170" cy="6654984"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1265,17 +1216,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D0014A-5D19-9042-B4C9-4EE58EB2FBC0}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -1297,7 +1246,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1257,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1268,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1290,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1301,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1312,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1323,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1334,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1345,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1367,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1429,7 +1378,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1400,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1411,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1422,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1484,7 +1433,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1444,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +1455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1466,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1477,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1488,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1499,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1561,7 +1510,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1572,7 +1521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +1532,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1543,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +1554,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1565,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1627,7 +1576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1638,7 +1587,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1649,7 +1598,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1660,7 +1609,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1620,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1693,7 +1642,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1704,7 +1653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1715,7 +1664,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +1675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1686,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1697,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1708,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1770,7 +1719,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1730,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1741,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1803,7 +1752,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1814,7 +1763,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1825,7 +1774,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1836,7 +1785,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1847,7 +1796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1858,7 +1807,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1869,7 +1818,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1829,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1891,7 +1840,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1902,7 +1851,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1913,7 +1862,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1924,7 +1873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1935,7 +1884,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1946,7 +1895,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1957,7 +1906,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1968,7 +1917,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +1928,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1990,7 +1939,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2001,7 +1950,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2012,7 +1961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2023,7 +1972,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2034,7 +1983,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2045,7 +1994,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2056,7 +2005,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2067,7 +2016,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2078,7 +2027,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2089,7 +2038,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2100,7 +2049,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2111,7 +2060,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2122,7 +2071,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2133,7 +2082,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2144,7 +2093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2155,7 +2104,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +2115,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2177,7 +2126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2188,7 +2137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2199,7 +2148,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2210,7 +2159,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2221,7 +2170,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2232,7 +2181,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2243,7 +2192,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2254,7 +2203,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2265,7 +2214,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2276,7 +2225,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2287,7 +2236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2298,7 +2247,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2309,7 +2258,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2320,7 +2269,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2331,7 +2280,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2342,7 +2291,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2353,7 +2302,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2364,7 +2313,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2375,7 +2324,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2386,7 +2335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2397,7 +2346,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2408,7 +2357,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2419,7 +2368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2430,7 +2379,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2441,7 +2390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2452,7 +2401,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2463,7 +2412,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2474,7 +2423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2485,7 +2434,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2496,7 +2445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2507,7 +2456,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2518,7 +2467,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2529,7 +2478,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2540,7 +2489,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2551,7 +2500,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2562,7 +2511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2573,7 +2522,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2584,7 +2533,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2595,7 +2544,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2606,7 +2555,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2617,7 +2566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2628,7 +2577,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2639,7 +2588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2650,7 +2599,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2661,7 +2610,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2672,7 +2621,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2683,7 +2632,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2694,7 +2643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2705,7 +2654,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2716,7 +2665,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2727,7 +2676,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2738,7 +2687,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2749,7 +2698,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2760,7 +2709,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2771,7 +2720,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2782,7 +2731,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2793,7 +2742,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2804,7 +2753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2815,7 +2764,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2826,7 +2775,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2837,7 +2786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2848,7 +2797,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2870,7 +2819,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2881,7 +2830,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2892,7 +2841,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2903,7 +2852,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2914,7 +2863,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2925,7 +2874,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2936,7 +2885,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2947,7 +2896,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2958,7 +2907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2969,7 +2918,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2980,7 +2929,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2991,7 +2940,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3002,7 +2951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3013,7 +2962,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3024,7 +2973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3035,7 +2984,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3046,7 +2995,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3057,7 +3006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3068,7 +3017,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3079,7 +3028,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3090,7 +3039,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3101,7 +3050,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3112,7 +3061,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3123,7 +3072,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3134,7 +3083,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3145,7 +3094,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3156,7 +3105,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3167,7 +3116,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3178,7 +3127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3189,7 +3138,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3200,7 +3149,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3211,7 +3160,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3222,7 +3171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3233,7 +3182,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3244,7 +3193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3255,7 +3204,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3266,7 +3215,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3277,7 +3226,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3288,7 +3237,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3299,7 +3248,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3310,7 +3259,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3321,7 +3270,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3332,7 +3281,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3343,7 +3292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3354,7 +3303,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3365,7 +3314,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3376,7 +3325,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3387,7 +3336,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3398,7 +3347,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3409,7 +3358,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3420,7 +3369,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3431,7 +3380,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3442,7 +3391,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3453,7 +3402,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3464,7 +3413,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3475,7 +3424,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3486,7 +3435,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3497,7 +3446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3508,7 +3457,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3519,7 +3468,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3530,7 +3479,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3541,7 +3490,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3552,7 +3501,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3563,7 +3512,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3574,7 +3523,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3585,7 +3534,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3596,7 +3545,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3607,7 +3556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3618,7 +3567,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3629,7 +3578,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3640,7 +3589,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3651,7 +3600,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3662,7 +3611,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3673,7 +3622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3684,7 +3633,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3695,7 +3644,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3706,7 +3655,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3717,7 +3666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3728,7 +3677,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3739,7 +3688,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3750,7 +3699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3761,7 +3710,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3772,7 +3721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3783,7 +3732,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3794,7 +3743,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3805,7 +3754,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3816,7 +3765,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3827,7 +3776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3838,7 +3787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3849,7 +3798,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3860,7 +3809,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -3871,7 +3820,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -3882,7 +3831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -3893,7 +3842,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -3904,7 +3853,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -3915,7 +3864,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -3926,7 +3875,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -3937,7 +3886,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -3948,7 +3897,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -3959,7 +3908,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -3970,7 +3919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -3981,7 +3930,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -3992,7 +3941,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4003,7 +3952,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4014,7 +3963,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4025,7 +3974,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4036,7 +3985,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4047,7 +3996,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4058,7 +4007,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4069,7 +4018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4083,6 +4032,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>